--- a/files_for_later/SubRES_NEW_STG.xlsx
+++ b/files_for_later/SubRES_NEW_STG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\files_for_later\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\files_for_later\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2603C-6075-4944-97BA-12E4797A9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66287F41-F13E-4326-B9CC-8764829AF4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>~FI_T</t>
   </si>
@@ -960,9 +960,6 @@
     <t>NRG</t>
   </si>
   <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>High Voltage Electricity (&gt;110 kV)</t>
   </si>
   <si>
@@ -1026,27 +1023,6 @@
     <t>STS</t>
   </si>
   <si>
-    <t>NEW_ELEC_STG</t>
-  </si>
-  <si>
-    <t>Electricity Storage</t>
-  </si>
-  <si>
-    <t>CommGrp</t>
-  </si>
-  <si>
-    <t>NCAP_AFC~DAYNITE</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>Discharge time in [h]</t>
-  </si>
-  <si>
-    <t>or energy capacity per power capacity [GWh/GW]</t>
-  </si>
-  <si>
     <t>Investment Cost [zł/kW]</t>
   </si>
   <si>
@@ -1059,7 +1035,19 @@
     <t>New Storage Processes</t>
   </si>
   <si>
-    <t>GW</t>
+    <t>NEW_H2_STG</t>
+  </si>
+  <si>
+    <t>H2  storage</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>NA PJ Pojemności</t>
+  </si>
+  <si>
+    <t>Pola na rózowo do wypełnienia bo te dane są dla innego magazynu</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1136,14 +1124,27 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,6 +1178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1232,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1260,13 +1267,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 10 15 2" xfId="3" xr:uid="{5200A0A1-44AF-40AD-AE15-73BAF6BD023B}"/>
     <cellStyle name="Normal 39 2 2" xfId="2" xr:uid="{0F1144D6-7A4E-4FC5-860A-F2788FE245BA}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,7 +1431,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1457,7 +1469,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1529,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1706,8 +1718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1734,10 +1746,15 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
+      <c r="C1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -1767,7 +1784,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1813,15 +1830,9 @@
       <c r="P5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="2:22" s="3" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
@@ -1858,22 +1869,20 @@
         <v>26</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="S6" s="13"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
@@ -1881,55 +1890,51 @@
     <row r="7" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="str">
         <f>C20</f>
-        <v>NEW_ELEC_STG</v>
+        <v>NEW_H2_STG</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>D20</f>
-        <v>Electricity Storage</v>
+        <v>H2  storage</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="str">
         <f>C14</f>
-        <v>ELEC_HV</v>
+        <v>HYDROGEN</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6" t="str">
         <f>C14</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="H7" s="5">
+        <v>HYDROGEN</v>
+      </c>
+      <c r="H7" s="19">
         <v>2025</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="19">
         <v>0.75</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="19">
         <v>20</v>
       </c>
-      <c r="L7" s="5">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
         <v>5000</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="19">
         <v>1</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="20">
         <v>1</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="19">
         <v>1</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1948,16 +1953,17 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="14">
-        <f>S8/24</f>
-        <v>0.25</v>
-      </c>
-      <c r="S8" s="16">
-        <v>6</v>
-      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="M9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="18"/>
     </row>
     <row r="11" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
@@ -2026,28 +2032,28 @@
         <v>43</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="I14" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2059,79 +2065,82 @@
     </row>
     <row r="18" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2141,6 +2150,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2335,7 +2353,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -2346,16 +2364,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C2EBBD-EC00-405F-A12E-6B08818701DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0EDF83-B4FE-4741-9604-131E1DB69920}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2374,7 +2391,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D77DA20-23E1-45D8-AF9C-F12B793516BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2383,12 +2400,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C2EBBD-EC00-405F-A12E-6B08818701DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/files_for_later/SubRES_NEW_STG.xlsx
+++ b/files_for_later/SubRES_NEW_STG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\files_for_later\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66287F41-F13E-4326-B9CC-8764829AF4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4F91E-6D36-48EA-82CD-130AE7295A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -1183,7 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,18 +1267,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 10 15 2" xfId="3" xr:uid="{5200A0A1-44AF-40AD-AE15-73BAF6BD023B}"/>
     <cellStyle name="Normal 39 2 2" xfId="2" xr:uid="{0F1144D6-7A4E-4FC5-860A-F2788FE245BA}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1431,7 +1431,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1469,7 +1469,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1541,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1718,8 +1718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="26" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1746,11 +1746,11 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
@@ -1906,31 +1906,31 @@
         <f>C14</f>
         <v>HYDROGEN</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <v>2025</v>
       </c>
-      <c r="I7" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="I7" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="K7" s="20">
+        <v>50</v>
+      </c>
+      <c r="L7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="19">
-        <v>20</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>5000</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <v>1</v>
-      </c>
-      <c r="P7" s="19">
+      <c r="M7" s="20">
+        <v>1600</v>
+      </c>
+      <c r="N7" s="20">
+        <v>16</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="20">
         <v>1</v>
       </c>
       <c r="Q7" s="5"/>
@@ -1960,10 +1960,10 @@
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="11" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
@@ -2159,6 +2159,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2353,17 +2364,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C2EBBD-EC00-405F-A12E-6B08818701DA}">
   <ds:schemaRefs>
@@ -2373,6 +2373,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D77DA20-23E1-45D8-AF9C-F12B793516BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD0EDF83-B4FE-4741-9604-131E1DB69920}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2389,15 +2400,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D77DA20-23E1-45D8-AF9C-F12B793516BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>